--- a/+Внедрение_энергоэффективного_освещения.xlsx
+++ b/+Внедрение_энергоэффективного_освещения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Перехвал\Белтелеком_Междуг_связь\Beltelekom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2090364-C71C-47E8-AD2B-0C2EF6759E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F44B8E-EB7C-4EFE-AA54-FAF85E60444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="109">
   <si>
     <t>Установленная мощность, кВт</t>
   </si>
@@ -323,22 +323,10 @@
     <t>АРТПС Борисов</t>
   </si>
   <si>
-    <t>АРТПС Березино</t>
-  </si>
-  <si>
     <t>Светодиодные светильники (22 шт.)</t>
   </si>
   <si>
-    <t>Светодиодные светильники (40 шт.)</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (48 шт.)</t>
-  </si>
-  <si>
     <t>АРТПС Крупки</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (20 шт.)</t>
   </si>
   <si>
     <t>Светодиодные светильники (8 шт.)</t>
@@ -348,9 +336,6 @@
   </si>
   <si>
     <t>Светодиодные светильники (32 шт.)</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (24 шт.)</t>
   </si>
   <si>
     <t>АРТПС Гребёнка</t>
@@ -365,9 +350,6 @@
     <t>Светодиодные светильники (6 шт.)</t>
   </si>
   <si>
-    <t>ПРС Ижа</t>
-  </si>
-  <si>
     <t>Светодиодные светильники (10 шт.)</t>
   </si>
   <si>
@@ -380,9 +362,6 @@
     <t>ОУП Борисов</t>
   </si>
   <si>
-    <t>Светодиодные светильники (220 шт.)</t>
-  </si>
-  <si>
     <t>Светодиодные светильники (420 шт.)</t>
   </si>
   <si>
@@ -390,9 +369,6 @@
   </si>
   <si>
     <t>АРТПС Ярошовка</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (28 шт.)</t>
   </si>
   <si>
     <t>АРТПС Новоселье</t>
@@ -410,22 +386,13 @@
     <t>Светодиодные светильники (14 шт.)</t>
   </si>
   <si>
-    <t>Светодиодные светильники (2 шт.)</t>
-  </si>
-  <si>
     <t>АРТПС Минск</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (26 шт.)</t>
   </si>
   <si>
     <t>АРТПС Защебье</t>
   </si>
   <si>
     <t>Светодиодные светильники (4 шт.)</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (11 шт.)</t>
   </si>
   <si>
     <t>АРТПС Мозырь</t>
@@ -458,40 +425,13 @@
     <t>АРТПС Бегомль</t>
   </si>
   <si>
-    <t>Светодиодные светильники (44 шт.)</t>
-  </si>
-  <si>
     <t>АРТПС Крулевщина</t>
   </si>
   <si>
     <t>АРТПС Шарковщина</t>
   </si>
   <si>
-    <t>Светодиодные светильники (64 шт.)</t>
-  </si>
-  <si>
     <t>АРТПС Струбки</t>
-  </si>
-  <si>
-    <t>АРТПС Горы</t>
-  </si>
-  <si>
-    <t>АРТПС Озерцы</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (16 шт.)</t>
-  </si>
-  <si>
-    <t>АРТПС Сенно</t>
-  </si>
-  <si>
-    <t>АРТПС Бычиха</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (36 шт.)</t>
-  </si>
-  <si>
-    <t>АРТПС Лиозно</t>
   </si>
   <si>
     <t>АРТПС Богданово</t>
@@ -501,9 +441,6 @@
   </si>
   <si>
     <t>АРТПС Мишневичи</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (18 шт.)</t>
   </si>
   <si>
     <t>Светодиодные светильники (30 шт.)</t>
@@ -530,37 +467,13 @@
     <t>ОРТПС Гродно</t>
   </si>
   <si>
-    <t>Светодиодные светильники (226 шт.)</t>
-  </si>
-  <si>
     <t>АРТПС Геранёны</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (128 шт.)</t>
   </si>
   <si>
     <t>База МУЭС-6</t>
   </si>
   <si>
     <t>Светодиодные светильники (34 шт.)</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (167 шт.)</t>
-  </si>
-  <si>
-    <t>АРТПС Кошелево</t>
-  </si>
-  <si>
-    <t>АРТПС Любча</t>
-  </si>
-  <si>
-    <t>АРТПС Луки</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (15 шт.)</t>
-  </si>
-  <si>
-    <t>АРТПС Столбцы</t>
   </si>
   <si>
     <t>АРТПС Копыль</t>
@@ -570,21 +483,6 @@
   </si>
   <si>
     <t>АРТПС Барановичи</t>
-  </si>
-  <si>
-    <t>АРТПС Солигорск</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (68 шт.)</t>
-  </si>
-  <si>
-    <t>АРТПС Старые Дороги</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (66 шт.)</t>
-  </si>
-  <si>
-    <t>АРТПС Сосны</t>
   </si>
   <si>
     <t>АРТПС Мосты</t>
@@ -608,9 +506,6 @@
     <t>АРТПС Мыто</t>
   </si>
   <si>
-    <t>Светодиодные светильники (25 шт.)</t>
-  </si>
-  <si>
     <t>АРТПС Крево</t>
   </si>
   <si>
@@ -624,9 +519,6 @@
   </si>
   <si>
     <t>АРТПС Посеничи</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (63 шт.)</t>
   </si>
   <si>
     <t>АРТПС Столин</t>
@@ -647,13 +539,7 @@
     <t>АРТПС Дрогичин</t>
   </si>
   <si>
-    <t>Светодиодные светильники (51 шт.)</t>
-  </si>
-  <si>
     <t>АРТПС Берёза</t>
-  </si>
-  <si>
-    <t>Светодиодные светильники (52 шт.)</t>
   </si>
   <si>
     <t>АРТПС Пружаны</t>
@@ -1037,27 +923,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1080,6 +945,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1754,59 +1640,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="268.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1816,12 +1702,12 @@
       <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B4" s="41">
         <v>269</v>
@@ -1855,7 +1741,7 @@
         <f t="shared" ref="K4" si="0">J4-J5</f>
         <v>18.775494144</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="53">
         <f>K4*0.2986*1.079</f>
         <v>6.049265192958873</v>
       </c>
@@ -1867,7 +1753,7 @@
         <f>Стоимость!B7</f>
         <v>10.53</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="54">
         <f>N4/M4</f>
         <v>3.3604387772330773</v>
       </c>
@@ -1908,10 +1794,10 @@
         <v>18.775494144</v>
       </c>
       <c r="K5" s="45"/>
-      <c r="L5" s="60"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
-      <c r="O5" s="61"/>
+      <c r="O5" s="54"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -1966,7 +1852,7 @@
         <v>2.3297541784034919</v>
       </c>
       <c r="N6" s="43">
-        <f>Стоимость!B19</f>
+        <f>Стоимость!B13</f>
         <v>7.83</v>
       </c>
       <c r="O6" s="46">
@@ -2051,7 +1937,7 @@
         <v>2.2132664694833175</v>
       </c>
       <c r="N8" s="43">
-        <f>Стоимость!B25</f>
+        <f>Стоимость!B19</f>
         <v>7.44</v>
       </c>
       <c r="O8" s="46">
@@ -2136,7 +2022,7 @@
         <v>0.25627295962438407</v>
       </c>
       <c r="N10" s="43">
-        <f>Стоимость!B31</f>
+        <f>Стоимость!B25</f>
         <v>0.87</v>
       </c>
       <c r="O10" s="46">
@@ -2178,7 +2064,7 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="41">
         <v>8</v>
@@ -2221,7 +2107,7 @@
         <v>9.3190167136139673E-2</v>
       </c>
       <c r="N12" s="43">
-        <f>Стоимость!B55</f>
+        <f>Стоимость!B31</f>
         <v>0.32</v>
       </c>
       <c r="O12" s="46">
@@ -2263,7 +2149,7 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="41">
         <v>32</v>
@@ -2306,7 +2192,7 @@
         <v>0.37276066854455869</v>
       </c>
       <c r="N14" s="43">
-        <f>Стоимость!B61</f>
+        <f>Стоимость!B37</f>
         <v>1.25</v>
       </c>
       <c r="O14" s="46">
@@ -2348,7 +2234,7 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="41">
         <v>8</v>
@@ -2391,7 +2277,7 @@
         <v>9.3190167136139673E-2</v>
       </c>
       <c r="N16" s="43">
-        <f>Стоимость!B85</f>
+        <f>Стоимость!B49</f>
         <v>0.32</v>
       </c>
       <c r="O16" s="46">
@@ -2433,7 +2319,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" s="41">
         <v>6</v>
@@ -2476,7 +2362,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N18" s="43">
-        <f>Стоимость!B91</f>
+        <f>Стоимость!B55</f>
         <v>0.25</v>
       </c>
       <c r="O18" s="46">
@@ -2518,13 +2404,13 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="52">
+        <v>40</v>
+      </c>
+      <c r="B20" s="57">
         <v>22</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D20" s="20">
         <v>0.15</v>
@@ -2541,14 +2427,14 @@
       <c r="H20" s="10">
         <v>0.8</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="58">
         <v>3880</v>
       </c>
       <c r="J20" s="22">
         <f>B20*D20*E20*F20*G20*H20*I20/1000</f>
         <v>11.267520000000001</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="55">
         <f t="shared" ref="K20" si="8">J20-J21</f>
         <v>9.0140160000000016</v>
       </c>
@@ -2556,22 +2442,22 @@
         <f>K20*0.2986*1.079</f>
         <v>2.9042204066304005</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="55">
         <f>L20*200*2.59/1000</f>
         <v>1.5043861706345474</v>
       </c>
       <c r="N20" s="43">
-        <f>Стоимость!B103</f>
+        <f>Стоимость!B61</f>
         <v>1.44</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="56">
         <f>N20/M20</f>
         <v>0.95720103528511602</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
-      <c r="B21" s="52"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="21" t="s">
         <v>1</v>
       </c>
@@ -2590,20 +2476,20 @@
       <c r="H21" s="10">
         <v>0.8</v>
       </c>
-      <c r="I21" s="53"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="22">
         <f>B20*D21*E21*F21*G21*H21*I20/1000</f>
         <v>2.253504</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="44"/>
-      <c r="M21" s="50"/>
+      <c r="M21" s="55"/>
       <c r="N21" s="43"/>
-      <c r="O21" s="51"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B22" s="41">
         <v>420</v>
@@ -2646,7 +2532,7 @@
         <v>4.8924837746473324</v>
       </c>
       <c r="N22" s="43">
-        <f>Стоимость!B115</f>
+        <f>Стоимость!B67</f>
         <v>16.45</v>
       </c>
       <c r="O22" s="46">
@@ -2688,7 +2574,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B24" s="41">
         <v>6</v>
@@ -2731,7 +2617,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N24" s="43">
-        <f>Стоимость!B127</f>
+        <f>Стоимость!B73</f>
         <v>0.25</v>
       </c>
       <c r="O24" s="46">
@@ -2773,7 +2659,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B26" s="41">
         <v>6</v>
@@ -2816,7 +2702,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N26" s="43">
-        <f>Стоимость!B139</f>
+        <f>Стоимость!B79</f>
         <v>0.25</v>
       </c>
       <c r="O26" s="46">
@@ -2858,7 +2744,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B28" s="41">
         <v>6</v>
@@ -2901,7 +2787,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N28" s="43">
-        <f>Стоимость!B151</f>
+        <f>Стоимость!B85</f>
         <v>0.25</v>
       </c>
       <c r="O28" s="46">
@@ -2943,7 +2829,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B30" s="41">
         <v>6</v>
@@ -2986,7 +2872,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N30" s="43">
-        <f>Стоимость!B157</f>
+        <f>Стоимость!B91</f>
         <v>0.25</v>
       </c>
       <c r="O30" s="46">
@@ -3028,7 +2914,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B32" s="41">
         <v>6</v>
@@ -3071,7 +2957,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N32" s="43">
-        <f>Стоимость!B163</f>
+        <f>Стоимость!B97</f>
         <v>0.25</v>
       </c>
       <c r="O32" s="46">
@@ -3113,7 +2999,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B34" s="41">
         <v>14</v>
@@ -3156,7 +3042,7 @@
         <v>0.16308279248824439</v>
       </c>
       <c r="N34" s="43">
-        <f>Стоимость!B169</f>
+        <f>Стоимость!B103</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="O34" s="46">
@@ -3198,7 +3084,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B36" s="41">
         <v>6</v>
@@ -3241,7 +3127,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N36" s="43">
-        <f>Стоимость!B181</f>
+        <f>Стоимость!B109</f>
         <v>0.25</v>
       </c>
       <c r="O36" s="46">
@@ -3283,7 +3169,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B38" s="41">
         <v>4</v>
@@ -3326,7 +3212,7 @@
         <v>4.6595083568069837E-2</v>
       </c>
       <c r="N38" s="43">
-        <f>Стоимость!B193</f>
+        <f>Стоимость!B115</f>
         <v>0.17</v>
       </c>
       <c r="O38" s="46">
@@ -3368,7 +3254,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B40" s="41">
         <v>6</v>
@@ -3411,7 +3297,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N40" s="43">
-        <f>Стоимость!B205</f>
+        <f>Стоимость!B121</f>
         <v>0.25</v>
       </c>
       <c r="O40" s="46">
@@ -3453,7 +3339,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B42" s="41">
         <v>4</v>
@@ -3496,7 +3382,7 @@
         <v>4.6595083568069837E-2</v>
       </c>
       <c r="N42" s="43">
-        <f>Стоимость!B217</f>
+        <f>Стоимость!B127</f>
         <v>0.17</v>
       </c>
       <c r="O42" s="46">
@@ -3538,7 +3424,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B44" s="41">
         <v>5</v>
@@ -3581,7 +3467,7 @@
         <v>5.8243854460087299E-2</v>
       </c>
       <c r="N44" s="43">
-        <f>Стоимость!B229</f>
+        <f>Стоимость!B133</f>
         <v>0.21</v>
       </c>
       <c r="O44" s="46">
@@ -3623,7 +3509,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B46" s="41">
         <v>5</v>
@@ -3666,7 +3552,7 @@
         <v>5.8243854460087299E-2</v>
       </c>
       <c r="N46" s="43">
-        <f>Стоимость!B241</f>
+        <f>Стоимость!B139</f>
         <v>0.21</v>
       </c>
       <c r="O46" s="46">
@@ -3708,7 +3594,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B48" s="41">
         <v>5</v>
@@ -3751,7 +3637,7 @@
         <v>5.8243854460087299E-2</v>
       </c>
       <c r="N48" s="43">
-        <f>Стоимость!B253</f>
+        <f>Стоимость!B145</f>
         <v>0.21</v>
       </c>
       <c r="O48" s="46">
@@ -3793,7 +3679,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B50" s="41">
         <v>5</v>
@@ -3836,7 +3722,7 @@
         <v>5.8243854460087299E-2</v>
       </c>
       <c r="N50" s="43">
-        <f>Стоимость!B265</f>
+        <f>Стоимость!B151</f>
         <v>0.21</v>
       </c>
       <c r="O50" s="46">
@@ -3878,7 +3764,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B52" s="41">
         <v>5</v>
@@ -3921,7 +3807,7 @@
         <v>5.8243854460087299E-2</v>
       </c>
       <c r="N52" s="43">
-        <f>Стоимость!B277</f>
+        <f>Стоимость!B157</f>
         <v>0.21</v>
       </c>
       <c r="O52" s="46">
@@ -3963,13 +3849,13 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B54" s="41">
         <v>4</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D54" s="15">
         <f>60/1000</f>
@@ -4007,7 +3893,7 @@
         <v>0.1223709265424056</v>
       </c>
       <c r="N54" s="43">
-        <f>Стоимость!B301</f>
+        <f>Стоимость!B163</f>
         <v>0.02</v>
       </c>
       <c r="O54" s="46">
@@ -4049,7 +3935,7 @@
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B56" s="41">
         <v>6</v>
@@ -4092,7 +3978,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N56" s="43">
-        <f>Стоимость!B307</f>
+        <f>Стоимость!B169</f>
         <v>0.25</v>
       </c>
       <c r="O56" s="46">
@@ -4134,13 +4020,13 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B58" s="41">
         <v>32</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D58" s="15">
         <f>60/1000</f>
@@ -4178,7 +4064,7 @@
         <v>0.97896741233924478</v>
       </c>
       <c r="N58" s="43">
-        <f>Стоимость!B319</f>
+        <f>Стоимость!B175</f>
         <v>0.18</v>
       </c>
       <c r="O58" s="46">
@@ -4220,7 +4106,7 @@
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B60" s="41">
         <v>6</v>
@@ -4263,7 +4149,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N60" s="43">
-        <f>Стоимость!B325</f>
+        <f>Стоимость!B181</f>
         <v>0.25</v>
       </c>
       <c r="O60" s="46">
@@ -4305,7 +4191,7 @@
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B62" s="41">
         <v>6</v>
@@ -4348,7 +4234,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N62" s="43">
-        <f>Стоимость!B331</f>
+        <f>Стоимость!B187</f>
         <v>0.25</v>
       </c>
       <c r="O62" s="46">
@@ -4390,7 +4276,7 @@
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B64" s="41">
         <v>6</v>
@@ -4433,7 +4319,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N64" s="43">
-        <f>Стоимость!B367</f>
+        <f>Стоимость!B193</f>
         <v>0.25</v>
       </c>
       <c r="O64" s="46">
@@ -4475,7 +4361,7 @@
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B66" s="41">
         <v>6</v>
@@ -4518,7 +4404,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N66" s="43">
-        <f>Стоимость!B373</f>
+        <f>Стоимость!B199</f>
         <v>0.25</v>
       </c>
       <c r="O66" s="46">
@@ -4560,7 +4446,7 @@
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B68" s="41">
         <v>6</v>
@@ -4603,7 +4489,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N68" s="43">
-        <f>Стоимость!B379</f>
+        <f>Стоимость!B205</f>
         <v>0.25</v>
       </c>
       <c r="O68" s="46">
@@ -4645,7 +4531,7 @@
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B70" s="41">
         <v>30</v>
@@ -4688,7 +4574,7 @@
         <v>0.34946312676052377</v>
       </c>
       <c r="N70" s="43">
-        <f>Стоимость!B391</f>
+        <f>Стоимость!B211</f>
         <v>1.18</v>
       </c>
       <c r="O70" s="46">
@@ -4730,13 +4616,13 @@
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B72" s="41">
         <v>60</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D72" s="15">
         <f>60/1000</f>
@@ -4774,7 +4660,7 @@
         <v>1.8355638981360844</v>
       </c>
       <c r="N72" s="43">
-        <f>Стоимость!B397</f>
+        <f>Стоимость!B217</f>
         <v>0.32</v>
       </c>
       <c r="O72" s="46">
@@ -4816,13 +4702,13 @@
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B74" s="41">
         <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D74" s="15">
         <f>11/1000</f>
@@ -4860,7 +4746,7 @@
         <v>9.0845937764341772E-2</v>
       </c>
       <c r="N74" s="43">
-        <f>Стоимость!B403</f>
+        <f>Стоимость!B223</f>
         <v>0.18</v>
       </c>
       <c r="O74" s="46">
@@ -4902,7 +4788,7 @@
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B76" s="41">
         <v>6</v>
@@ -4945,7 +4831,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N76" s="43">
-        <f>Стоимость!B409</f>
+        <f>Стоимость!B229</f>
         <v>0.25</v>
       </c>
       <c r="O76" s="46">
@@ -4987,7 +4873,7 @@
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B78" s="41">
         <v>10</v>
@@ -5030,7 +4916,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N78" s="43">
-        <f>Стоимость!B415</f>
+        <f>Стоимость!B235</f>
         <v>0.42</v>
       </c>
       <c r="O78" s="46">
@@ -5072,7 +4958,7 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B80" s="41">
         <v>6</v>
@@ -5115,7 +5001,7 @@
         <v>6.9892625352104734E-2</v>
       </c>
       <c r="N80" s="43">
-        <f>Стоимость!B427</f>
+        <f>Стоимость!B241</f>
         <v>0.26</v>
       </c>
       <c r="O80" s="46">
@@ -5157,7 +5043,7 @@
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B82" s="41">
         <v>34</v>
@@ -5200,7 +5086,7 @@
         <v>0.39605821032859373</v>
       </c>
       <c r="N82" s="43">
-        <f>Стоимость!B439</f>
+        <f>Стоимость!B247</f>
         <v>1.41</v>
       </c>
       <c r="O82" s="46">
@@ -5242,7 +5128,7 @@
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B84" s="41">
         <v>3</v>
@@ -5285,7 +5171,7 @@
         <v>3.4946312676052367E-2</v>
       </c>
       <c r="N84" s="43">
-        <f>Стоимость!B481</f>
+        <f>Стоимость!B253</f>
         <v>0.13</v>
       </c>
       <c r="O84" s="46">
@@ -5327,7 +5213,7 @@
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B86" s="41">
         <v>3</v>
@@ -5370,7 +5256,7 @@
         <v>3.4946312676052367E-2</v>
       </c>
       <c r="N86" s="43">
-        <f>Стоимость!B493</f>
+        <f>Стоимость!B259</f>
         <v>0.13</v>
       </c>
       <c r="O86" s="46">
@@ -5412,7 +5298,7 @@
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B88" s="41">
         <v>4</v>
@@ -5455,7 +5341,7 @@
         <v>4.6595083568069837E-2</v>
       </c>
       <c r="N88" s="43">
-        <f>Стоимость!B523</f>
+        <f>Стоимость!B265</f>
         <v>0.17</v>
       </c>
       <c r="O88" s="46">
@@ -5497,7 +5383,7 @@
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B90" s="41">
         <v>4</v>
@@ -5540,7 +5426,7 @@
         <v>4.6595083568069837E-2</v>
       </c>
       <c r="N90" s="43">
-        <f>Стоимость!B535</f>
+        <f>Стоимость!B271</f>
         <v>0.17</v>
       </c>
       <c r="O90" s="46">
@@ -5582,7 +5468,7 @@
     </row>
     <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B92" s="41">
         <v>4</v>
@@ -5625,7 +5511,7 @@
         <v>4.6595083568069837E-2</v>
       </c>
       <c r="N92" s="43">
-        <f>Стоимость!B547</f>
+        <f>Стоимость!B277</f>
         <v>0.17</v>
       </c>
       <c r="O92" s="46">
@@ -5667,7 +5553,7 @@
     </row>
     <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B94" s="41">
         <v>13</v>
@@ -5710,7 +5596,7 @@
         <v>7.5717010798113479E-2</v>
       </c>
       <c r="N94" s="43">
-        <f>Стоимость!B553</f>
+        <f>Стоимость!B283</f>
         <v>0.35</v>
       </c>
       <c r="O94" s="46">
@@ -5752,7 +5638,7 @@
     </row>
     <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B96" s="41">
         <v>4</v>
@@ -5795,7 +5681,7 @@
         <v>4.6595083568069837E-2</v>
       </c>
       <c r="N96" s="43">
-        <f>Стоимость!B559</f>
+        <f>Стоимость!B289</f>
         <v>0.17</v>
       </c>
       <c r="O96" s="46">
@@ -5837,7 +5723,7 @@
     </row>
     <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B98" s="41">
         <v>10</v>
@@ -5880,7 +5766,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N98" s="43">
-        <f>Стоимость!B571</f>
+        <f>Стоимость!B295</f>
         <v>0.42</v>
       </c>
       <c r="O98" s="46">
@@ -5922,7 +5808,7 @@
     </row>
     <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B100" s="41">
         <v>10</v>
@@ -5965,7 +5851,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N100" s="43">
-        <f>Стоимость!B583</f>
+        <f>Стоимость!B301</f>
         <v>0.42</v>
       </c>
       <c r="O100" s="46">
@@ -6007,7 +5893,7 @@
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B102" s="41">
         <v>10</v>
@@ -6050,7 +5936,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N102" s="43">
-        <f>Стоимость!B595</f>
+        <f>Стоимость!B307</f>
         <v>0.42</v>
       </c>
       <c r="O102" s="46">
@@ -6092,7 +5978,7 @@
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B104" s="41">
         <v>10</v>
@@ -6135,7 +6021,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N104" s="43">
-        <f>Стоимость!B607</f>
+        <f>Стоимость!B313</f>
         <v>0.42</v>
       </c>
       <c r="O104" s="46">
@@ -6177,7 +6063,7 @@
     </row>
     <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B106" s="41">
         <v>10</v>
@@ -6220,7 +6106,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N106" s="43">
-        <f>Стоимость!B619</f>
+        <f>Стоимость!B319</f>
         <v>0.42</v>
       </c>
       <c r="O106" s="46">
@@ -6262,7 +6148,7 @@
     </row>
     <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B108" s="41">
         <v>10</v>
@@ -6305,7 +6191,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N108" s="43">
-        <f>Стоимость!B631</f>
+        <f>Стоимость!B325</f>
         <v>0.42</v>
       </c>
       <c r="O108" s="46">
@@ -6347,7 +6233,7 @@
     </row>
     <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B110" s="41">
         <v>10</v>
@@ -6390,7 +6276,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N110" s="43">
-        <f>Стоимость!B643</f>
+        <f>Стоимость!B331</f>
         <v>0.42</v>
       </c>
       <c r="O110" s="46">
@@ -6432,7 +6318,7 @@
     </row>
     <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B112" s="41">
         <v>10</v>
@@ -6475,7 +6361,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N112" s="43">
-        <f>Стоимость!B655</f>
+        <f>Стоимость!B337</f>
         <v>0.42</v>
       </c>
       <c r="O112" s="46">
@@ -6517,7 +6403,7 @@
     </row>
     <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B114" s="41">
         <v>10</v>
@@ -6560,7 +6446,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N114" s="43">
-        <f>Стоимость!B667</f>
+        <f>Стоимость!B343</f>
         <v>0.42</v>
       </c>
       <c r="O114" s="46">
@@ -6602,7 +6488,7 @@
     </row>
     <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B116" s="41">
         <v>10</v>
@@ -6645,7 +6531,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N116" s="43">
-        <f>Стоимость!B679</f>
+        <f>Стоимость!B349</f>
         <v>0.42</v>
       </c>
       <c r="O116" s="46">
@@ -6687,7 +6573,7 @@
     </row>
     <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B118" s="41">
         <v>10</v>
@@ -6730,7 +6616,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N118" s="43">
-        <f>Стоимость!B691</f>
+        <f>Стоимость!B355</f>
         <v>0.42</v>
       </c>
       <c r="O118" s="46">
@@ -6772,7 +6658,7 @@
     </row>
     <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="B120" s="41">
         <v>10</v>
@@ -6815,7 +6701,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N120" s="43">
-        <f>Стоимость!B703</f>
+        <f>Стоимость!B361</f>
         <v>0.42</v>
       </c>
       <c r="O120" s="46">
@@ -6857,7 +6743,7 @@
     </row>
     <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B122" s="41">
         <v>10</v>
@@ -6900,7 +6786,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N122" s="43">
-        <f>Стоимость!B715</f>
+        <f>Стоимость!B367</f>
         <v>0.42</v>
       </c>
       <c r="O122" s="46">
@@ -6942,7 +6828,7 @@
     </row>
     <row r="124" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B124" s="41">
         <v>10</v>
@@ -6985,7 +6871,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N124" s="43">
-        <f>Стоимость!B727</f>
+        <f>Стоимость!B373</f>
         <v>0.42</v>
       </c>
       <c r="O124" s="46">
@@ -7027,7 +6913,7 @@
     </row>
     <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B126" s="41">
         <v>10</v>
@@ -7070,7 +6956,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N126" s="43">
-        <f>Стоимость!B739</f>
+        <f>Стоимость!B379</f>
         <v>0.42</v>
       </c>
       <c r="O126" s="46">
@@ -7112,7 +6998,7 @@
     </row>
     <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B128" s="41">
         <v>10</v>
@@ -7155,7 +7041,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N128" s="43">
-        <f>Стоимость!B751</f>
+        <f>Стоимость!B385</f>
         <v>0.42</v>
       </c>
       <c r="O128" s="46">
@@ -7197,7 +7083,7 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B130" s="41">
         <v>10</v>
@@ -7240,7 +7126,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N130" s="43">
-        <f>Стоимость!B763</f>
+        <f>Стоимость!B391</f>
         <v>0.42</v>
       </c>
       <c r="O130" s="46">
@@ -7282,7 +7168,7 @@
     </row>
     <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B132" s="41">
         <v>10</v>
@@ -7325,7 +7211,7 @@
         <v>0.1164877089201746</v>
       </c>
       <c r="N132" s="43">
-        <f>Стоимость!B775</f>
+        <f>Стоимость!B397</f>
         <v>0.42</v>
       </c>
       <c r="O132" s="46">
@@ -7366,18 +7252,18 @@
       <c r="O133" s="46"/>
     </row>
     <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" s="48"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48"/>
-      <c r="J134" s="49"/>
+      <c r="A134" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="60"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="60"/>
+      <c r="I134" s="60"/>
+      <c r="J134" s="61"/>
       <c r="K134" s="38">
         <f>SUM(K4:K133)</f>
         <v>137.05171635199989</v>
@@ -7391,94 +7277,444 @@
         <v>22.873124114898125</v>
       </c>
       <c r="N134" s="34" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="O134" s="34" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="534">
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="A134:J134"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="N132:N133"/>
+    <mergeCell ref="O132:O133"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="N130:N131"/>
+    <mergeCell ref="O130:O131"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="L128:L129"/>
+    <mergeCell ref="M128:M129"/>
+    <mergeCell ref="N128:N129"/>
+    <mergeCell ref="O128:O129"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="O126:O127"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="M124:M125"/>
+    <mergeCell ref="N124:N125"/>
+    <mergeCell ref="O124:O125"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="N120:N121"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="N118:N119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="N114:N115"/>
+    <mergeCell ref="O114:O115"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="N112:N113"/>
+    <mergeCell ref="O112:O113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="N108:N109"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="O88:O89"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="I46:I47"/>
@@ -7503,436 +7739,86 @@
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="O44:O45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="O88:O89"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="O90:O91"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="N110:N111"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="N108:N109"/>
-    <mergeCell ref="O108:O109"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="N114:N115"/>
-    <mergeCell ref="O114:O115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="N112:N113"/>
-    <mergeCell ref="O112:O113"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="N118:N119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="N120:N121"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="N126:N127"/>
-    <mergeCell ref="O126:O127"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:L125"/>
-    <mergeCell ref="M124:M125"/>
-    <mergeCell ref="N124:N125"/>
-    <mergeCell ref="O124:O125"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="N130:N131"/>
-    <mergeCell ref="O130:O131"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="L128:L129"/>
-    <mergeCell ref="M128:M129"/>
-    <mergeCell ref="N128:N129"/>
-    <mergeCell ref="O128:O129"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="A134:J134"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="M132:M133"/>
-    <mergeCell ref="N132:N133"/>
-    <mergeCell ref="O132:O133"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7945,10 +7831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9D363-F8EC-4F3D-BC8D-2CA4E928A4C6}">
-  <dimension ref="A1:B775"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:B404"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B397" sqref="A1:B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7967,13 +7853,13 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B3" s="18">
         <f>30*269/1000</f>
@@ -8017,17 +7903,17 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B8" s="63"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="18">
-        <f>20*30/1000</f>
-        <v>0.6</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="17">
+        <f>30*200/1000</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8036,7 +7922,7 @@
       </c>
       <c r="B10" s="18">
         <f>B11*0.1</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8045,7 +7931,7 @@
       </c>
       <c r="B11" s="18">
         <f>B9*0.25</f>
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8054,7 +7940,7 @@
       </c>
       <c r="B12" s="18">
         <f>B9*0.03</f>
-        <v>1.7999999999999999E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8062,22 +7948,22 @@
         <v>21</v>
       </c>
       <c r="B13" s="19">
-        <v>0.79</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="63"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="17">
-        <f>30*200/1000</f>
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="18">
+        <f>30*190/1000</f>
+        <v>5.7</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8086,7 +7972,7 @@
       </c>
       <c r="B16" s="18">
         <f>B17*0.1</f>
-        <v>0.15000000000000002</v>
+        <v>0.14250000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8095,7 +7981,7 @@
       </c>
       <c r="B17" s="18">
         <f>B15*0.25</f>
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8104,7 +7990,7 @@
       </c>
       <c r="B18" s="18">
         <f>B15*0.03</f>
-        <v>0.18</v>
+        <v>0.17099999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8112,22 +7998,22 @@
         <v>21</v>
       </c>
       <c r="B19" s="19">
-        <v>7.83</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="63"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="18">
-        <f>30*190/1000</f>
-        <v>5.7</v>
+        <f>30*22/1000</f>
+        <v>0.66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8136,7 +8022,7 @@
       </c>
       <c r="B22" s="18">
         <f>B23*0.1</f>
-        <v>0.14250000000000002</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8145,7 +8031,7 @@
       </c>
       <c r="B23" s="18">
         <f>B21*0.25</f>
-        <v>1.425</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8154,7 +8040,7 @@
       </c>
       <c r="B24" s="18">
         <f>B21*0.03</f>
-        <v>0.17099999999999999</v>
+        <v>1.9800000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8162,22 +8048,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="19">
-        <v>7.44</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="63"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="18">
-        <f>30*22/1000</f>
-        <v>0.66</v>
+        <f>30*8/1000</f>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8186,7 +8072,7 @@
       </c>
       <c r="B28" s="18">
         <f>B29*0.1</f>
-        <v>1.6500000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8195,7 +8081,7 @@
       </c>
       <c r="B29" s="18">
         <f>B27*0.25</f>
-        <v>0.16500000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8204,7 +8090,7 @@
       </c>
       <c r="B30" s="18">
         <f>B27*0.03</f>
-        <v>1.9800000000000002E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8212,22 +8098,22 @@
         <v>21</v>
       </c>
       <c r="B31" s="19">
-        <v>0.87</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="62" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B32" s="63"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="18">
-        <f>20*40/1000</f>
-        <v>0.8</v>
+        <f>30*32/1000</f>
+        <v>0.96</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8236,7 +8122,7 @@
       </c>
       <c r="B34" s="18">
         <f>B35*0.1</f>
-        <v>2.0000000000000004E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8245,7 +8131,7 @@
       </c>
       <c r="B35" s="18">
         <f>B33*0.25</f>
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8254,7 +8140,7 @@
       </c>
       <c r="B36" s="18">
         <f>B33*0.03</f>
-        <v>2.4E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8262,22 +8148,22 @@
         <v>21</v>
       </c>
       <c r="B37" s="19">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B38" s="63"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="18">
-        <f>20*48/1000</f>
-        <v>0.96</v>
+        <f>20*32/1000</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8286,7 +8172,7 @@
       </c>
       <c r="B40" s="18">
         <f>B41*0.1</f>
-        <v>2.4E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8295,7 +8181,7 @@
       </c>
       <c r="B41" s="18">
         <f>B39*0.25</f>
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8304,7 +8190,7 @@
       </c>
       <c r="B42" s="18">
         <f>B39*0.03</f>
-        <v>2.8799999999999999E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8312,22 +8198,22 @@
         <v>21</v>
       </c>
       <c r="B43" s="19">
-        <v>1.25</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" s="63"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" s="18">
-        <f>20*20/1000</f>
-        <v>0.4</v>
+        <f>30*8/1000</f>
+        <v>0.24</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8336,7 +8222,7 @@
       </c>
       <c r="B46" s="18">
         <f>B47*0.1</f>
-        <v>1.0000000000000002E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8345,7 +8231,7 @@
       </c>
       <c r="B47" s="18">
         <f>B45*0.25</f>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8354,7 +8240,7 @@
       </c>
       <c r="B48" s="18">
         <f>B45*0.03</f>
-        <v>1.2E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8362,22 +8248,22 @@
         <v>21</v>
       </c>
       <c r="B49" s="19">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="62" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B50" s="63"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B51" s="18">
-        <f>30*8/1000</f>
-        <v>0.24</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8385,8 +8271,7 @@
         <v>18</v>
       </c>
       <c r="B52" s="18">
-        <f>B53*0.1</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8395,7 +8280,7 @@
       </c>
       <c r="B53" s="18">
         <f>B51*0.25</f>
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8404,7 +8289,7 @@
       </c>
       <c r="B54" s="18">
         <f>B51*0.03</f>
-        <v>7.1999999999999998E-3</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8412,22 +8297,22 @@
         <v>21</v>
       </c>
       <c r="B55" s="19">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="63"/>
+      <c r="A56" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="65"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B57" s="18">
-        <f>30*32/1000</f>
-        <v>0.96</v>
+        <f>50*22/1000</f>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8436,7 +8321,7 @@
       </c>
       <c r="B58" s="18">
         <f>B59*0.1</f>
-        <v>2.4E-2</v>
+        <v>2.7500000000000004E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8445,7 +8330,7 @@
       </c>
       <c r="B59" s="18">
         <f>B57*0.25</f>
-        <v>0.24</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8454,7 +8339,7 @@
       </c>
       <c r="B60" s="18">
         <f>B57*0.03</f>
-        <v>2.8799999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8462,22 +8347,22 @@
         <v>21</v>
       </c>
       <c r="B61" s="19">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B62" s="63"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B63" s="18">
-        <f>20*24/1000</f>
-        <v>0.48</v>
+        <f>30*420/1000</f>
+        <v>12.6</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8486,7 +8371,7 @@
       </c>
       <c r="B64" s="18">
         <f>B65*0.1</f>
-        <v>1.2E-2</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8495,7 +8380,7 @@
       </c>
       <c r="B65" s="18">
         <f>B63*0.25</f>
-        <v>0.12</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8504,7 +8389,7 @@
       </c>
       <c r="B66" s="18">
         <f>B63*0.03</f>
-        <v>1.44E-2</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8512,12 +8397,12 @@
         <v>21</v>
       </c>
       <c r="B67" s="19">
-        <v>0.62</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B68" s="63"/>
     </row>
@@ -8526,8 +8411,8 @@
         <v>37</v>
       </c>
       <c r="B69" s="18">
-        <f>20*32/1000</f>
-        <v>0.64</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8535,8 +8420,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="18">
-        <f>B71*0.1</f>
-        <v>1.6E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8545,7 +8429,7 @@
       </c>
       <c r="B71" s="18">
         <f>B69*0.25</f>
-        <v>0.16</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8554,7 +8438,7 @@
       </c>
       <c r="B72" s="18">
         <f>B69*0.03</f>
-        <v>1.9199999999999998E-2</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8562,22 +8446,22 @@
         <v>21</v>
       </c>
       <c r="B73" s="19">
-        <v>0.84</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="62" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B74" s="63"/>
     </row>
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B75" s="18">
-        <f>20*20/1000</f>
-        <v>0.4</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8585,8 +8469,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="18">
-        <f>B77*0.1</f>
-        <v>1.0000000000000002E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8595,7 +8478,7 @@
       </c>
       <c r="B77" s="18">
         <f>B75*0.25</f>
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8604,7 +8487,7 @@
       </c>
       <c r="B78" s="18">
         <f>B75*0.03</f>
-        <v>1.2E-2</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8612,22 +8495,22 @@
         <v>21</v>
       </c>
       <c r="B79" s="19">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="62" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B80" s="63"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B81" s="18">
-        <f>30*8/1000</f>
-        <v>0.24</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8635,8 +8518,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="18">
-        <f>B83*0.1</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8645,7 +8527,7 @@
       </c>
       <c r="B83" s="18">
         <f>B81*0.25</f>
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8654,7 +8536,7 @@
       </c>
       <c r="B84" s="18">
         <f>B81*0.03</f>
-        <v>7.1999999999999998E-3</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8662,18 +8544,18 @@
         <v>21</v>
       </c>
       <c r="B85" s="19">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B86" s="63"/>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B87" s="18">
         <f>30*6/1000</f>
@@ -8697,7 +8579,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
         <v>20</v>
       </c>
@@ -8716,17 +8598,17 @@
     </row>
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B92" s="63"/>
     </row>
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B93" s="18">
-        <f>20*10/1000</f>
-        <v>0.2</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8734,8 +8616,7 @@
         <v>18</v>
       </c>
       <c r="B94" s="18">
-        <f>B95*0.1</f>
-        <v>5.000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8744,7 +8625,7 @@
       </c>
       <c r="B95" s="18">
         <f>B93*0.25</f>
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8753,7 +8634,7 @@
       </c>
       <c r="B96" s="18">
         <f>B93*0.03</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8761,22 +8642,22 @@
         <v>21</v>
       </c>
       <c r="B97" s="19">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="65"/>
+      <c r="A98" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="63"/>
     </row>
     <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B99" s="18">
-        <f>50*22/1000</f>
-        <v>1.1000000000000001</v>
+        <f>30*14/1000</f>
+        <v>0.42</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8785,7 +8666,7 @@
       </c>
       <c r="B100" s="18">
         <f>B101*0.1</f>
-        <v>2.7500000000000004E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8794,7 +8675,7 @@
       </c>
       <c r="B101" s="18">
         <f>B99*0.25</f>
-        <v>0.27500000000000002</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8803,7 +8684,7 @@
       </c>
       <c r="B102" s="18">
         <f>B99*0.03</f>
-        <v>3.3000000000000002E-2</v>
+        <v>1.2599999999999998E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8811,22 +8692,22 @@
         <v>21</v>
       </c>
       <c r="B103" s="19">
-        <v>1.44</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B104" s="63"/>
     </row>
     <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B105" s="18">
-        <f>20*220/1000</f>
-        <v>4.4000000000000004</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8834,8 +8715,7 @@
         <v>18</v>
       </c>
       <c r="B106" s="18">
-        <f>B107*0.1</f>
-        <v>0.11000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8844,7 +8724,7 @@
       </c>
       <c r="B107" s="18">
         <f>B105*0.25</f>
-        <v>1.1000000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8853,7 +8733,7 @@
       </c>
       <c r="B108" s="18">
         <f>B105*0.03</f>
-        <v>0.13200000000000001</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8861,22 +8741,22 @@
         <v>21</v>
       </c>
       <c r="B109" s="19">
-        <v>5.74</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="62" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B110" s="63"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B111" s="18">
-        <f>30*420/1000</f>
-        <v>12.6</v>
+        <f>30*4/1000</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8884,8 +8764,7 @@
         <v>18</v>
       </c>
       <c r="B112" s="18">
-        <f>B113*0.1</f>
-        <v>0.315</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8894,16 +8773,15 @@
       </c>
       <c r="B113" s="18">
         <f>B111*0.25</f>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B114" s="18">
-        <f>B111*0.03</f>
-        <v>0.378</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8911,22 +8789,22 @@
         <v>21</v>
       </c>
       <c r="B115" s="19">
-        <v>16.45</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B116" s="63"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B117" s="18">
-        <f>20*20/1000</f>
-        <v>0.4</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8934,8 +8812,7 @@
         <v>18</v>
       </c>
       <c r="B118" s="18">
-        <f>B119*0.1</f>
-        <v>1.0000000000000002E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8944,16 +8821,16 @@
       </c>
       <c r="B119" s="18">
         <f>B117*0.25</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B120" s="18">
         <f>B117*0.03</f>
-        <v>1.2E-2</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8961,22 +8838,22 @@
         <v>21</v>
       </c>
       <c r="B121" s="19">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="62" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B122" s="63"/>
     </row>
     <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B123" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*4/1000</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -8993,16 +8870,15 @@
       </c>
       <c r="B125" s="18">
         <f>B123*0.25</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B126" s="18">
-        <f>B123*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9010,22 +8886,22 @@
         <v>21</v>
       </c>
       <c r="B127" s="19">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" s="62" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B128" s="63"/>
     </row>
     <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B129" s="18">
-        <f>20*28/1000</f>
-        <v>0.56000000000000005</v>
+        <f>30*5/1000</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9033,8 +8909,7 @@
         <v>18</v>
       </c>
       <c r="B130" s="18">
-        <f>B131*0.1</f>
-        <v>1.4000000000000002E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9043,7 +8918,7 @@
       </c>
       <c r="B131" s="18">
         <f>B129*0.25</f>
-        <v>0.14000000000000001</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9051,34 +8926,33 @@
         <v>20</v>
       </c>
       <c r="B132" s="18">
-        <f>B129*0.03</f>
-        <v>1.6800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B133" s="19">
-        <v>0.73</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A134" s="62" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B134" s="63"/>
     </row>
     <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A135" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B135" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <f>30*5/1000</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="16" t="s">
         <v>18</v>
       </c>
@@ -9092,7 +8966,7 @@
       </c>
       <c r="B137" s="18">
         <f>B135*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9100,8 +8974,7 @@
         <v>20</v>
       </c>
       <c r="B138" s="18">
-        <f>B135*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9109,22 +8982,22 @@
         <v>21</v>
       </c>
       <c r="B139" s="19">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A140" s="62" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B140" s="63"/>
     </row>
     <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B141" s="18">
-        <f>20*20/1000</f>
-        <v>0.4</v>
+        <f>30*5/1000</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9132,8 +9005,7 @@
         <v>18</v>
       </c>
       <c r="B142" s="18">
-        <f>B143*0.1</f>
-        <v>1.0000000000000002E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9142,7 +9014,7 @@
       </c>
       <c r="B143" s="18">
         <f>B141*0.25</f>
-        <v>0.1</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9150,31 +9022,30 @@
         <v>20</v>
       </c>
       <c r="B144" s="18">
-        <f>B141*0.03</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B145" s="19">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A146" s="62" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B146" s="63"/>
     </row>
     <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B147" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*5/1000</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9191,7 +9062,7 @@
       </c>
       <c r="B149" s="18">
         <f>B147*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9199,8 +9070,7 @@
         <v>20</v>
       </c>
       <c r="B150" s="18">
-        <f>B147*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9208,25 +9078,25 @@
         <v>21</v>
       </c>
       <c r="B151" s="19">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A152" s="62" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B152" s="63"/>
     </row>
     <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B153" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <f>30*5/1000</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="16" t="s">
         <v>18</v>
       </c>
@@ -9240,7 +9110,7 @@
       </c>
       <c r="B155" s="18">
         <f>B153*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9248,8 +9118,7 @@
         <v>20</v>
       </c>
       <c r="B156" s="18">
-        <f>B153*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9257,48 +9126,49 @@
         <v>21</v>
       </c>
       <c r="B157" s="19">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A158" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B158" s="63"/>
     </row>
     <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A159" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B159" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>4*4/1000</f>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B160" s="18">
-        <v>0.01</v>
+      <c r="B160" s="28">
+        <f>B161*0.1</f>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="27">
         <f>B159*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="28">
         <f>B159*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>4.8000000000000001E-4</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9306,31 +9176,30 @@
         <v>21</v>
       </c>
       <c r="B163" s="19">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A164" s="62" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B164" s="63"/>
     </row>
     <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B165" s="18">
-        <f>30*14/1000</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <f>30*6/1000</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B166" s="18">
-        <f>B167*0.1</f>
-        <v>1.0500000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9339,7 +9208,7 @@
       </c>
       <c r="B167" s="18">
         <f>B165*0.25</f>
-        <v>0.105</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9348,7 +9217,7 @@
       </c>
       <c r="B168" s="18">
         <f>B165*0.03</f>
-        <v>1.2599999999999998E-2</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9356,22 +9225,22 @@
         <v>21</v>
       </c>
       <c r="B169" s="19">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A170" s="62" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B170" s="63"/>
     </row>
     <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B171" s="18">
-        <f>20*2/1000</f>
-        <v>0.04</v>
+        <f>4*32/1000</f>
+        <v>0.128</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9388,7 +9257,7 @@
       </c>
       <c r="B173" s="18">
         <f>B171*0.25</f>
-        <v>0.01</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9404,18 +9273,18 @@
         <v>21</v>
       </c>
       <c r="B175" s="19">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" s="62" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B176" s="63"/>
     </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B177" s="18">
         <f>30*6/1000</f>
@@ -9458,17 +9327,17 @@
     </row>
     <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A182" s="62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B182" s="63"/>
     </row>
     <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A183" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B183" s="18">
-        <f>20*26/1000</f>
-        <v>0.52</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9476,8 +9345,7 @@
         <v>18</v>
       </c>
       <c r="B184" s="18">
-        <f>B185*0.1</f>
-        <v>1.3000000000000001E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9486,7 +9354,7 @@
       </c>
       <c r="B185" s="18">
         <f>B183*0.25</f>
-        <v>0.13</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9495,7 +9363,7 @@
       </c>
       <c r="B186" s="18">
         <f>B183*0.03</f>
-        <v>1.5599999999999999E-2</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9503,22 +9371,22 @@
         <v>21</v>
       </c>
       <c r="B187" s="19">
-        <v>0.68</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A188" s="62" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B188" s="63"/>
     </row>
     <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A189" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B189" s="18">
-        <f>30*4/1000</f>
-        <v>0.12</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9535,7 +9403,7 @@
       </c>
       <c r="B191" s="18">
         <f>B189*0.25</f>
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9543,7 +9411,8 @@
         <v>20</v>
       </c>
       <c r="B192" s="18">
-        <v>0.01</v>
+        <f>B189*0.03</f>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9551,22 +9420,22 @@
         <v>21</v>
       </c>
       <c r="B193" s="19">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A194" s="62" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B194" s="63"/>
     </row>
     <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B195" s="18">
-        <f>20*11/1000</f>
-        <v>0.22</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9574,8 +9443,7 @@
         <v>18</v>
       </c>
       <c r="B196" s="18">
-        <f>B197*0.1</f>
-        <v>5.5000000000000005E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9584,7 +9452,7 @@
       </c>
       <c r="B197" s="18">
         <f>B195*0.25</f>
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9593,7 +9461,7 @@
       </c>
       <c r="B198" s="18">
         <f>B195*0.03</f>
-        <v>6.6E-3</v>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9601,18 +9469,18 @@
         <v>21</v>
       </c>
       <c r="B199" s="19">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A200" s="62" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B200" s="63"/>
     </row>
     <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A201" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B201" s="18">
         <f>30*6/1000</f>
@@ -9655,17 +9523,17 @@
     </row>
     <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A206" s="62" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B206" s="63"/>
     </row>
     <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A207" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B207" s="18">
-        <f>20*13/1000</f>
-        <v>0.26</v>
+        <f>30*30/1000</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9674,7 +9542,7 @@
       </c>
       <c r="B208" s="18">
         <f>B209*0.1</f>
-        <v>6.5000000000000006E-3</v>
+        <v>2.2500000000000003E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9683,7 +9551,7 @@
       </c>
       <c r="B209" s="18">
         <f>B207*0.25</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9692,7 +9560,7 @@
       </c>
       <c r="B210" s="18">
         <f>B207*0.03</f>
-        <v>7.7999999999999996E-3</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9700,22 +9568,22 @@
         <v>21</v>
       </c>
       <c r="B211" s="19">
-        <v>0.35</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A212" s="62" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B212" s="63"/>
     </row>
     <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A213" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B213" s="18">
-        <f>30*4/1000</f>
-        <v>0.12</v>
+        <f>4*60/1000</f>
+        <v>0.24</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9723,7 +9591,8 @@
         <v>18</v>
       </c>
       <c r="B214" s="18">
-        <v>0.01</v>
+        <f>B215*0.1</f>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9732,7 +9601,7 @@
       </c>
       <c r="B215" s="18">
         <f>B213*0.25</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9740,7 +9609,8 @@
         <v>20</v>
       </c>
       <c r="B216" s="18">
-        <v>0.01</v>
+        <f>B213*0.03</f>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9748,22 +9618,22 @@
         <v>21</v>
       </c>
       <c r="B217" s="19">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A218" s="62" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B218" s="63"/>
     </row>
-    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="16" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B219" s="18">
-        <f>20*11/1000</f>
-        <v>0.22</v>
+        <f>4*32/1000</f>
+        <v>0.128</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9771,8 +9641,7 @@
         <v>18</v>
       </c>
       <c r="B220" s="18">
-        <f>B221*0.1</f>
-        <v>5.5000000000000005E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9781,7 +9650,7 @@
       </c>
       <c r="B221" s="18">
         <f>B219*0.25</f>
-        <v>5.5E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9789,8 +9658,7 @@
         <v>20</v>
       </c>
       <c r="B222" s="18">
-        <f>B219*0.03</f>
-        <v>6.6E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9798,22 +9666,22 @@
         <v>21</v>
       </c>
       <c r="B223" s="19">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A224" s="62" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B224" s="63"/>
     </row>
     <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A225" s="16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B225" s="18">
-        <f>30*5/1000</f>
-        <v>0.15</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9830,7 +9698,7 @@
       </c>
       <c r="B227" s="18">
         <f>B225*0.25</f>
-        <v>3.7499999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9838,7 +9706,8 @@
         <v>20</v>
       </c>
       <c r="B228" s="18">
-        <v>0.01</v>
+        <f>B225*0.03</f>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9846,22 +9715,22 @@
         <v>21</v>
       </c>
       <c r="B229" s="19">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A230" s="62" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B230" s="63"/>
     </row>
     <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A231" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B231" s="18">
-        <f>20*13/1000</f>
-        <v>0.26</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9869,8 +9738,8 @@
         <v>18</v>
       </c>
       <c r="B232" s="18">
-        <f>B233*0.1</f>
-        <v>6.5000000000000006E-3</v>
+        <f>B231*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9879,7 +9748,7 @@
       </c>
       <c r="B233" s="18">
         <f>B231*0.25</f>
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9888,7 +9757,7 @@
       </c>
       <c r="B234" s="18">
         <f>B231*0.03</f>
-        <v>7.7999999999999996E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9896,22 +9765,22 @@
         <v>21</v>
       </c>
       <c r="B235" s="19">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A236" s="62" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B236" s="63"/>
     </row>
     <row r="237" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A237" s="16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B237" s="18">
-        <f>30*5/1000</f>
-        <v>0.15</v>
+        <f>30*6/1000</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9919,7 +9788,8 @@
         <v>18</v>
       </c>
       <c r="B238" s="18">
-        <v>0.01</v>
+        <f>B237*0.1</f>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9928,15 +9798,16 @@
       </c>
       <c r="B239" s="18">
         <f>B237*0.25</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B240" s="18">
-        <v>0.01</v>
+        <f>B237*0.03</f>
+        <v>5.3999999999999994E-3</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9944,22 +9815,22 @@
         <v>21</v>
       </c>
       <c r="B241" s="19">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A242" s="62" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B242" s="63"/>
     </row>
     <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A243" s="16" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B243" s="18">
-        <f>20*13/1000</f>
-        <v>0.26</v>
+        <f>30*34/1000</f>
+        <v>1.02</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9967,8 +9838,8 @@
         <v>18</v>
       </c>
       <c r="B244" s="18">
-        <f>B245*0.1</f>
-        <v>6.5000000000000006E-3</v>
+        <f>B243*0.1</f>
+        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9977,16 +9848,16 @@
       </c>
       <c r="B245" s="18">
         <f>B243*0.25</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B246" s="18">
         <f>B243*0.03</f>
-        <v>7.7999999999999996E-3</v>
+        <v>3.0599999999999999E-2</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -9994,22 +9865,22 @@
         <v>21</v>
       </c>
       <c r="B247" s="19">
-        <v>0.35</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A248" s="62" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B248" s="63"/>
     </row>
     <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A249" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B249" s="18">
-        <f>30*5/1000</f>
-        <v>0.15</v>
+        <f>30*3/1000</f>
+        <v>0.09</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10017,7 +9888,8 @@
         <v>18</v>
       </c>
       <c r="B250" s="18">
-        <v>0.01</v>
+        <f>B249*0.1</f>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10026,7 +9898,7 @@
       </c>
       <c r="B251" s="18">
         <f>B249*0.25</f>
-        <v>3.7499999999999999E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10042,22 +9914,22 @@
         <v>21</v>
       </c>
       <c r="B253" s="19">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A254" s="62" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B254" s="63"/>
     </row>
     <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A255" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B255" s="18">
-        <f>20*13/1000</f>
-        <v>0.26</v>
+        <f>30*3/1000</f>
+        <v>0.09</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10065,8 +9937,8 @@
         <v>18</v>
       </c>
       <c r="B256" s="18">
-        <f>B257*0.1</f>
-        <v>6.5000000000000006E-3</v>
+        <f>B255*0.1</f>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10075,7 +9947,7 @@
       </c>
       <c r="B257" s="18">
         <f>B255*0.25</f>
-        <v>6.5000000000000002E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10083,8 +9955,7 @@
         <v>20</v>
       </c>
       <c r="B258" s="18">
-        <f>B255*0.03</f>
-        <v>7.7999999999999996E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10092,22 +9963,22 @@
         <v>21</v>
       </c>
       <c r="B259" s="19">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A260" s="62" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B260" s="63"/>
     </row>
     <row r="261" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A261" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B261" s="18">
-        <f>30*5/1000</f>
-        <v>0.15</v>
+        <f>30*4/1000</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10115,7 +9986,8 @@
         <v>18</v>
       </c>
       <c r="B262" s="18">
-        <v>0.01</v>
+        <f>B261*0.1</f>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10124,7 +9996,7 @@
       </c>
       <c r="B263" s="18">
         <f>B261*0.25</f>
-        <v>3.7499999999999999E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10140,22 +10012,22 @@
         <v>21</v>
       </c>
       <c r="B265" s="19">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A266" s="62" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B266" s="63"/>
     </row>
     <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A267" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B267" s="18">
-        <f>20*13/1000</f>
-        <v>0.26</v>
+        <f>30*4/1000</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10163,8 +10035,8 @@
         <v>18</v>
       </c>
       <c r="B268" s="18">
-        <f>B269*0.1</f>
-        <v>6.5000000000000006E-3</v>
+        <f>B267*0.1</f>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10173,7 +10045,7 @@
       </c>
       <c r="B269" s="18">
         <f>B267*0.25</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10181,8 +10053,7 @@
         <v>20</v>
       </c>
       <c r="B270" s="18">
-        <f>B267*0.03</f>
-        <v>7.7999999999999996E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10190,22 +10061,22 @@
         <v>21</v>
       </c>
       <c r="B271" s="19">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A272" s="62" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B272" s="63"/>
     </row>
     <row r="273" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A273" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B273" s="18">
-        <f>30*5/1000</f>
-        <v>0.15</v>
+        <f>30*4/1000</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10213,7 +10084,8 @@
         <v>18</v>
       </c>
       <c r="B274" s="18">
-        <v>0.01</v>
+        <f>B273*0.1</f>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10222,7 +10094,7 @@
       </c>
       <c r="B275" s="18">
         <f>B273*0.25</f>
-        <v>3.7499999999999999E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10238,22 +10110,22 @@
         <v>21</v>
       </c>
       <c r="B277" s="19">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A278" s="62" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B278" s="63"/>
     </row>
     <row r="279" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A279" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B279" s="18">
-        <f>20*11/1000</f>
-        <v>0.22</v>
+        <f>20*13/1000</f>
+        <v>0.26</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10262,7 +10134,7 @@
       </c>
       <c r="B280" s="18">
         <f>B281*0.1</f>
-        <v>5.5000000000000005E-3</v>
+        <v>6.5000000000000006E-3</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10271,16 +10143,16 @@
       </c>
       <c r="B281" s="18">
         <f>B279*0.25</f>
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B282" s="18">
         <f>B279*0.03</f>
-        <v>6.6E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10288,22 +10160,22 @@
         <v>21</v>
       </c>
       <c r="B283" s="19">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A284" s="62" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B284" s="63"/>
     </row>
     <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A285" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B285" s="18">
-        <f>20*44/1000</f>
-        <v>0.88</v>
+        <f>30*4/1000</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10311,8 +10183,8 @@
         <v>18</v>
       </c>
       <c r="B286" s="18">
-        <f>B287*0.1</f>
-        <v>2.2000000000000002E-2</v>
+        <f>B285*0.1</f>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10321,7 +10193,7 @@
       </c>
       <c r="B287" s="18">
         <f>B285*0.25</f>
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10329,8 +10201,7 @@
         <v>20</v>
       </c>
       <c r="B288" s="18">
-        <f>B285*0.03</f>
-        <v>2.64E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10338,22 +10209,22 @@
         <v>21</v>
       </c>
       <c r="B289" s="19">
-        <v>1.1499999999999999</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A290" s="62" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B290" s="63"/>
     </row>
     <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A291" s="16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B291" s="18">
-        <f>30*2/1000</f>
-        <v>0.06</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10361,7 +10232,8 @@
         <v>18</v>
       </c>
       <c r="B292" s="18">
-        <v>0.01</v>
+        <f>B291*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10370,7 +10242,7 @@
       </c>
       <c r="B293" s="18">
         <f>B291*0.25</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10386,49 +10258,48 @@
         <v>21</v>
       </c>
       <c r="B295" s="19">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A296" s="62" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B296" s="63"/>
     </row>
     <row r="297" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B297" s="18">
-        <f>4*4/1000</f>
-        <v>1.6E-2</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B298" s="28">
-        <f>B299*0.1</f>
-        <v>4.0000000000000002E-4</v>
+      <c r="B298" s="18">
+        <f>B297*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B299" s="27">
+      <c r="B299" s="18">
         <f>B297*0.25</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B300" s="28">
-        <f>B297*0.03</f>
-        <v>4.8000000000000001E-4</v>
+      <c r="B300" s="18">
+        <v>0.01</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10436,22 +10307,22 @@
         <v>21</v>
       </c>
       <c r="B301" s="19">
-        <v>0.02</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A302" s="62" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B302" s="63"/>
     </row>
     <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B303" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10459,7 +10330,8 @@
         <v>18</v>
       </c>
       <c r="B304" s="18">
-        <v>0.01</v>
+        <f>B303*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10468,7 +10340,7 @@
       </c>
       <c r="B305" s="18">
         <f>B303*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10476,8 +10348,7 @@
         <v>20</v>
       </c>
       <c r="B306" s="18">
-        <f>B303*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10485,22 +10356,22 @@
         <v>21</v>
       </c>
       <c r="B307" s="19">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A308" s="62" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B308" s="63"/>
     </row>
     <row r="309" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A309" s="16" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B309" s="18">
-        <f>20*64/1000</f>
-        <v>1.28</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10508,8 +10379,8 @@
         <v>18</v>
       </c>
       <c r="B310" s="18">
-        <f>B311*0.1</f>
-        <v>3.2000000000000001E-2</v>
+        <f>B309*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10518,7 +10389,7 @@
       </c>
       <c r="B311" s="18">
         <f>B309*0.25</f>
-        <v>0.32</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10526,8 +10397,7 @@
         <v>20</v>
       </c>
       <c r="B312" s="18">
-        <f>B309*0.03</f>
-        <v>3.8399999999999997E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10535,22 +10405,22 @@
         <v>21</v>
       </c>
       <c r="B313" s="19">
-        <v>1.67</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A314" s="62" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B314" s="63"/>
     </row>
     <row r="315" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A315" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B315" s="18">
-        <f>4*32/1000</f>
-        <v>0.128</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10558,7 +10428,8 @@
         <v>18</v>
       </c>
       <c r="B316" s="18">
-        <v>0.01</v>
+        <f>B315*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10567,7 +10438,7 @@
       </c>
       <c r="B317" s="18">
         <f>B315*0.25</f>
-        <v>3.2000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10583,22 +10454,22 @@
         <v>21</v>
       </c>
       <c r="B319" s="19">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A320" s="62" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B320" s="63"/>
     </row>
     <row r="321" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A321" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B321" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10606,7 +10477,8 @@
         <v>18</v>
       </c>
       <c r="B322" s="18">
-        <v>0.01</v>
+        <f>B321*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10615,7 +10487,7 @@
       </c>
       <c r="B323" s="18">
         <f>B321*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10623,8 +10495,7 @@
         <v>20</v>
       </c>
       <c r="B324" s="18">
-        <f>B321*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10632,22 +10503,22 @@
         <v>21</v>
       </c>
       <c r="B325" s="19">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A326" s="62" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B326" s="63"/>
     </row>
     <row r="327" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A327" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B327" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10655,7 +10526,8 @@
         <v>18</v>
       </c>
       <c r="B328" s="18">
-        <v>0.01</v>
+        <f>B327*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10664,7 +10536,7 @@
       </c>
       <c r="B329" s="18">
         <f>B327*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10672,8 +10544,7 @@
         <v>20</v>
       </c>
       <c r="B330" s="18">
-        <f>B327*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10681,22 +10552,22 @@
         <v>21</v>
       </c>
       <c r="B331" s="19">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A332" s="62" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B332" s="63"/>
     </row>
     <row r="333" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A333" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B333" s="18">
-        <f>20*48/1000</f>
-        <v>0.96</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10704,8 +10575,8 @@
         <v>18</v>
       </c>
       <c r="B334" s="18">
-        <f>B335*0.1</f>
-        <v>2.4E-2</v>
+        <f>B333*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10714,7 +10585,7 @@
       </c>
       <c r="B335" s="18">
         <f>B333*0.25</f>
-        <v>0.24</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10722,8 +10593,7 @@
         <v>20</v>
       </c>
       <c r="B336" s="18">
-        <f>B333*0.03</f>
-        <v>2.8799999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10731,22 +10601,22 @@
         <v>21</v>
       </c>
       <c r="B337" s="19">
-        <v>1.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A338" s="62" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B338" s="63"/>
     </row>
     <row r="339" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A339" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B339" s="18">
-        <f>20*16/1000</f>
-        <v>0.32</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10754,8 +10624,8 @@
         <v>18</v>
       </c>
       <c r="B340" s="18">
-        <f>B341*0.1</f>
-        <v>8.0000000000000002E-3</v>
+        <f>B339*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10764,16 +10634,15 @@
       </c>
       <c r="B341" s="18">
         <f>B339*0.25</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B342" s="18">
-        <f>B339*0.03</f>
-        <v>9.5999999999999992E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10786,17 +10655,17 @@
     </row>
     <row r="344" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A344" s="62" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B344" s="63"/>
     </row>
     <row r="345" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A345" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B345" s="18">
-        <f>20*32/1000</f>
-        <v>0.64</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10804,8 +10673,8 @@
         <v>18</v>
       </c>
       <c r="B346" s="18">
-        <f>B347*0.1</f>
-        <v>1.6E-2</v>
+        <f>B345*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10814,16 +10683,15 @@
       </c>
       <c r="B347" s="18">
         <f>B345*0.25</f>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B348" s="18">
-        <f>B345*0.03</f>
-        <v>1.9199999999999998E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10831,22 +10699,22 @@
         <v>21</v>
       </c>
       <c r="B349" s="19">
-        <v>0.84</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A350" s="62" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B350" s="63"/>
     </row>
     <row r="351" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A351" s="16" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B351" s="18">
-        <f>20*36/1000</f>
-        <v>0.72</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10854,8 +10722,8 @@
         <v>18</v>
       </c>
       <c r="B352" s="18">
-        <f>B353*0.1</f>
-        <v>1.7999999999999999E-2</v>
+        <f>B351*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10864,7 +10732,7 @@
       </c>
       <c r="B353" s="18">
         <f>B351*0.25</f>
-        <v>0.18</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10872,8 +10740,7 @@
         <v>20</v>
       </c>
       <c r="B354" s="18">
-        <f>B351*0.03</f>
-        <v>2.1599999999999998E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10881,31 +10748,31 @@
         <v>21</v>
       </c>
       <c r="B355" s="19">
-        <v>0.94</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A356" s="62" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B356" s="63"/>
     </row>
     <row r="357" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A357" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B357" s="18">
-        <f>20*32/1000</f>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <f>30*10/1000</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B358" s="18">
-        <f>B359*0.1</f>
-        <v>1.6E-2</v>
+        <f>B357*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10914,7 +10781,7 @@
       </c>
       <c r="B359" s="18">
         <f>B357*0.25</f>
-        <v>0.16</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10922,8 +10789,7 @@
         <v>20</v>
       </c>
       <c r="B360" s="18">
-        <f>B357*0.03</f>
-        <v>1.9199999999999998E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10931,22 +10797,22 @@
         <v>21</v>
       </c>
       <c r="B361" s="19">
-        <v>0.84</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A362" s="62" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B362" s="63"/>
     </row>
     <row r="363" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A363" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B363" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10954,7 +10820,8 @@
         <v>18</v>
       </c>
       <c r="B364" s="18">
-        <v>0.01</v>
+        <f>B363*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10963,7 +10830,7 @@
       </c>
       <c r="B365" s="18">
         <f>B363*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10971,8 +10838,7 @@
         <v>20</v>
       </c>
       <c r="B366" s="18">
-        <f>B363*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10980,22 +10846,22 @@
         <v>21</v>
       </c>
       <c r="B367" s="19">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A368" s="62" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B368" s="63"/>
     </row>
     <row r="369" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A369" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B369" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11003,7 +10869,8 @@
         <v>18</v>
       </c>
       <c r="B370" s="18">
-        <v>0.01</v>
+        <f>B369*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11012,7 +10879,7 @@
       </c>
       <c r="B371" s="18">
         <f>B369*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11020,31 +10887,30 @@
         <v>20</v>
       </c>
       <c r="B372" s="18">
-        <f>B369*0.03</f>
-        <v>5.3999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B373" s="19">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A374" s="62" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B374" s="63"/>
     </row>
     <row r="375" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A375" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B375" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11052,7 +10918,8 @@
         <v>18</v>
       </c>
       <c r="B376" s="18">
-        <v>0.01</v>
+        <f>B375*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11061,7 +10928,7 @@
       </c>
       <c r="B377" s="18">
         <f>B375*0.25</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11069,8 +10936,7 @@
         <v>20</v>
       </c>
       <c r="B378" s="18">
-        <f>B375*0.03</f>
-        <v>5.3999999999999994E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11078,22 +10944,22 @@
         <v>21</v>
       </c>
       <c r="B379" s="19">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A380" s="62" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B380" s="63"/>
     </row>
     <row r="381" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A381" s="16" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B381" s="18">
-        <f>20*18/1000</f>
-        <v>0.36</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11101,8 +10967,8 @@
         <v>18</v>
       </c>
       <c r="B382" s="18">
-        <f>B383*0.1</f>
-        <v>8.9999999999999993E-3</v>
+        <f>B381*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11111,7 +10977,7 @@
       </c>
       <c r="B383" s="18">
         <f>B381*0.25</f>
-        <v>0.09</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11119,8 +10985,7 @@
         <v>20</v>
       </c>
       <c r="B384" s="18">
-        <f>B381*0.03</f>
-        <v>1.0799999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11128,22 +10993,22 @@
         <v>21</v>
       </c>
       <c r="B385" s="19">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A386" s="62" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B386" s="63"/>
     </row>
     <row r="387" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A387" s="16" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B387" s="18">
-        <f>30*30/1000</f>
-        <v>0.9</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11151,8 +11016,8 @@
         <v>18</v>
       </c>
       <c r="B388" s="18">
-        <f>B389*0.1</f>
-        <v>2.2500000000000003E-2</v>
+        <f>B387*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11161,7 +11026,7 @@
       </c>
       <c r="B389" s="18">
         <f>B387*0.25</f>
-        <v>0.22500000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11169,8 +11034,7 @@
         <v>20</v>
       </c>
       <c r="B390" s="18">
-        <f>B387*0.03</f>
-        <v>2.7E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11178,22 +11042,22 @@
         <v>21</v>
       </c>
       <c r="B391" s="19">
-        <v>1.18</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A392" s="62" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B392" s="63"/>
     </row>
     <row r="393" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A393" s="16" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B393" s="18">
-        <f>4*60/1000</f>
-        <v>0.24</v>
+        <f>30*10/1000</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11201,8 +11065,8 @@
         <v>18</v>
       </c>
       <c r="B394" s="18">
-        <f>B395*0.1</f>
-        <v>6.0000000000000001E-3</v>
+        <f>B393*0.1</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11211,7 +11075,7 @@
       </c>
       <c r="B395" s="18">
         <f>B393*0.25</f>
-        <v>0.06</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11219,8 +11083,7 @@
         <v>20</v>
       </c>
       <c r="B396" s="18">
-        <f>B393*0.03</f>
-        <v>7.1999999999999998E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -11228,3263 +11091,77 @@
         <v>21</v>
       </c>
       <c r="B397" s="19">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="B398" s="63"/>
-    </row>
-    <row r="399" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B399" s="18">
-        <f>4*32/1000</f>
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B400" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B401" s="18">
-        <f>B399*0.25</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B402" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A403" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B403" s="19">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A404" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B404" s="63"/>
-    </row>
-    <row r="405" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B405" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B406" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B407" s="18">
-        <f>B405*0.25</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B408" s="18">
-        <f>B405*0.03</f>
-        <v>5.3999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B409" s="19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B410" s="63"/>
-    </row>
-    <row r="411" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B411" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B412" s="18">
-        <f>B411*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B413" s="18">
-        <f>B411*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B414" s="18">
-        <f>B411*0.03</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B415" s="19">
         <v>0.42</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B416" s="63"/>
-    </row>
-    <row r="417" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B417" s="18">
-        <f>20*226/1000</f>
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B418" s="18">
-        <f>B419*0.1</f>
-        <v>0.11299999999999999</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A419" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B419" s="18">
-        <f>B417*0.25</f>
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A420" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B420" s="18">
-        <f>B417*0.03</f>
-        <v>0.13559999999999997</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B421" s="19">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="B422" s="63"/>
-    </row>
-    <row r="423" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B423" s="18">
-        <f>30*6/1000</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B424" s="18">
-        <f>B423*0.1</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B425" s="18">
-        <f>B423*0.25</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B426" s="18">
-        <f>B423*0.03</f>
-        <v>5.3999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B427" s="19">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="B428" s="63"/>
-    </row>
-    <row r="429" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B429" s="18">
-        <f>20*128/1000</f>
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B430" s="18">
-        <f>B431*0.1</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B431" s="18">
-        <f>B429*0.25</f>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B432" s="18">
-        <f>B429*0.03</f>
-        <v>7.6799999999999993E-2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B433" s="19">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B434" s="63"/>
-    </row>
-    <row r="435" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B435" s="18">
-        <f>30*34/1000</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B436" s="18">
-        <f>B435*0.1</f>
-        <v>0.10200000000000001</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B437" s="18">
-        <f>B435*0.25</f>
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B438" s="18">
-        <f>B435*0.03</f>
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B439" s="19">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B440" s="63"/>
-    </row>
-    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A441" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B441" s="18">
-        <f>20*167/1000</f>
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A442" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B442" s="18">
-        <f>B443*0.1</f>
-        <v>8.3500000000000005E-2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A443" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B443" s="18">
-        <f>B441*0.25</f>
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B444" s="18">
-        <f>B441*0.03</f>
-        <v>0.1002</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B445" s="19">
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B446" s="63"/>
-    </row>
-    <row r="447" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B447" s="18">
-        <f>20*14/1000</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B448" s="18">
-        <f>B449*0.1</f>
-        <v>7.000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B449" s="18">
-        <f>B447*0.25</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B450" s="18">
-        <f>B447*0.03</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B451" s="19">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="B452" s="63"/>
-    </row>
-    <row r="453" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B453" s="18">
-        <f>20*14/1000</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B454" s="18">
-        <f>B455*0.1</f>
-        <v>7.000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B455" s="18">
-        <f>B453*0.25</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B456" s="18">
-        <f>B453*0.03</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B457" s="19">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="B458" s="63"/>
-    </row>
-    <row r="459" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B459" s="18">
-        <f>20*15/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B460" s="18">
-        <f>B461*0.1</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B461" s="18">
-        <f>B459*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B462" s="18">
-        <f>B459*0.03</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B463" s="19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B464" s="63"/>
-    </row>
-    <row r="465" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B465" s="18">
-        <f>20*15/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B466" s="18">
-        <f>B467*0.1</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B467" s="18">
-        <f>B465*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B468" s="18">
-        <f>B465*0.03</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B469" s="19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B470" s="63"/>
-    </row>
-    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B471" s="18">
-        <f>20*15/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B472" s="18">
-        <f>B473*0.1</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B473" s="18">
-        <f>B471*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B474" s="18">
-        <f>B471*0.03</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A475" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B475" s="19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A476" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B476" s="63"/>
-    </row>
-    <row r="477" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A477" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B477" s="18">
-        <f>30*3/1000</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A478" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B478" s="18">
-        <f>B477*0.1</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A479" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B479" s="18">
-        <f>B477*0.25</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A480" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B480" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A481" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B481" s="19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A482" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B482" s="63"/>
-    </row>
-    <row r="483" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A483" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B483" s="18">
-        <f>20*15/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A484" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B484" s="18">
-        <f>B485*0.1</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A485" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B485" s="18">
-        <f>B483*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A486" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B486" s="18">
-        <f>B483*0.03</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A487" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B487" s="19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A488" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B488" s="63"/>
-    </row>
-    <row r="489" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A489" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B489" s="18">
-        <f>30*3/1000</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A490" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B490" s="18">
-        <f>B489*0.1</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A491" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B491" s="18">
-        <f>B489*0.25</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A492" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B492" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A493" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B493" s="19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A494" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B494" s="63"/>
-    </row>
-    <row r="495" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A495" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B495" s="18">
-        <f>20*68/1000</f>
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A496" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B496" s="18">
-        <f>B497*0.1</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A497" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B497" s="18">
-        <f>B495*0.25</f>
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A498" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B498" s="18">
-        <f>B495*0.03</f>
-        <v>4.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A499" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B499" s="19">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A500" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B500" s="63"/>
-    </row>
-    <row r="501" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A501" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B501" s="18">
-        <f>20*66/1000</f>
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A502" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B502" s="18">
-        <f>B503*0.1</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A503" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B503" s="18">
-        <f>B501*0.25</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A504" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B504" s="18">
-        <f>B501*0.03</f>
-        <v>3.9600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A505" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B505" s="19">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A506" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B506" s="63"/>
-    </row>
-    <row r="507" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A507" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B507" s="18">
-        <f>20*66/1000</f>
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A508" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B508" s="18">
-        <f>B509*0.1</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A509" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B509" s="18">
-        <f>B507*0.25</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A510" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B510" s="18">
-        <f>B507*0.03</f>
-        <v>3.9600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A511" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B511" s="19">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A512" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B512" s="63"/>
-    </row>
-    <row r="513" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A513" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B513" s="18">
-        <f>20*14/1000</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A514" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B514" s="18">
-        <f>B515*0.1</f>
-        <v>7.000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A515" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B515" s="18">
-        <f>B513*0.25</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A516" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B516" s="18">
-        <f>B513*0.03</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A517" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B517" s="19">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A518" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B518" s="63"/>
-    </row>
-    <row r="519" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A519" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B519" s="18">
-        <f>30*4/1000</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A520" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B520" s="18">
-        <f>B519*0.1</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A521" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B521" s="18">
-        <f>B519*0.25</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A522" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B522" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A523" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B523" s="19">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A524" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B524" s="63"/>
-    </row>
-    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A525" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B525" s="18">
-        <f>20*13/1000</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A526" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B526" s="18">
-        <f>B527*0.1</f>
-        <v>6.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A527" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B527" s="18">
-        <f>B525*0.25</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A528" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B528" s="18">
-        <f>B525*0.03</f>
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A529" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B529" s="19">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A530" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B530" s="63"/>
-    </row>
-    <row r="531" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A531" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B531" s="18">
-        <f>30*4/1000</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A532" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B532" s="18">
-        <f>B531*0.1</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A533" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B533" s="18">
-        <f>B531*0.25</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A534" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B534" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A535" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B535" s="19">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A536" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B536" s="63"/>
-    </row>
-    <row r="537" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A537" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B537" s="18">
-        <f>20*14/1000</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A538" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B538" s="18">
-        <f>B539*0.1</f>
-        <v>7.000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A539" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B539" s="18">
-        <f>B537*0.25</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A540" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B540" s="18">
-        <f>B537*0.03</f>
-        <v>8.4000000000000012E-3</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A541" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B541" s="19">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A542" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B542" s="63"/>
-    </row>
-    <row r="543" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A543" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B543" s="18">
-        <f>30*4/1000</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A544" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B544" s="18">
-        <f>B543*0.1</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A545" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B545" s="18">
-        <f>B543*0.25</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A546" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B546" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A547" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B547" s="19">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A548" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B548" s="63"/>
-    </row>
-    <row r="549" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A549" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B549" s="18">
-        <f>20*13/1000</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A550" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B550" s="18">
-        <f>B551*0.1</f>
-        <v>6.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A551" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B551" s="18">
-        <f>B549*0.25</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A552" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B552" s="18">
-        <f>B549*0.03</f>
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A553" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B553" s="19">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A554" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B554" s="63"/>
-    </row>
-    <row r="555" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A555" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B555" s="18">
-        <f>30*4/1000</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A556" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B556" s="18">
-        <f>B555*0.1</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A557" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B557" s="18">
-        <f>B555*0.25</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A558" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B558" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A559" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B559" s="19">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A560" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B560" s="63"/>
-    </row>
-    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A561" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B561" s="18">
-        <f>20*26/1000</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A562" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B562" s="18">
-        <f>B563*0.1</f>
-        <v>1.3000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A563" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B563" s="18">
-        <f>B561*0.25</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A564" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B564" s="18">
-        <f>B561*0.03</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A565" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B565" s="19">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A566" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B566" s="63"/>
-    </row>
-    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A567" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B567" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A568" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B568" s="18">
-        <f>B567*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A569" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B569" s="18">
-        <f>B567*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A570" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B570" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A571" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B571" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A572" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B572" s="63"/>
-    </row>
-    <row r="573" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A573" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B573" s="18">
-        <f>20*26/1000</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A574" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B574" s="18">
-        <f>B575*0.1</f>
-        <v>1.3000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A575" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B575" s="18">
-        <f>B573*0.25</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A576" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B576" s="18">
-        <f>B573*0.03</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A577" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B577" s="19">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A578" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B578" s="63"/>
-    </row>
-    <row r="579" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A579" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B579" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A580" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B580" s="18">
-        <f>B579*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A581" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B581" s="18">
-        <f>B579*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A582" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B582" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A583" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B583" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A584" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B584" s="63"/>
-    </row>
-    <row r="585" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A585" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B585" s="18">
-        <f>20*25/1000</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A586" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B586" s="18">
-        <f>B587*0.1</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A587" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B587" s="18">
-        <f>B585*0.25</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A588" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B588" s="18">
-        <f>B585*0.03</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A589" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B589" s="19">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A590" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="B590" s="63"/>
-    </row>
-    <row r="591" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A591" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B591" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A592" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B592" s="18">
-        <f>B591*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A593" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B593" s="18">
-        <f>B591*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A594" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B594" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A595" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B595" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A596" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B596" s="63"/>
-    </row>
-    <row r="597" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A597" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B597" s="18">
-        <f>20*26/1000</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A598" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B598" s="18">
-        <f>B599*0.1</f>
-        <v>1.3000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A599" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B599" s="18">
-        <f>B597*0.25</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A600" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B600" s="18">
-        <f>B597*0.03</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A601" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B601" s="19">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A602" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B602" s="63"/>
-    </row>
-    <row r="603" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A603" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B603" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A604" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B604" s="18">
-        <f>B603*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A605" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B605" s="18">
-        <f>B603*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A606" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B606" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A607" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B607" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A608" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B608" s="63"/>
-    </row>
-    <row r="609" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A609" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B609" s="18">
-        <f>20*25/1000</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A610" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B610" s="18">
-        <f>B611*0.1</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A611" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B611" s="18">
-        <f>B609*0.25</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A612" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B612" s="18">
-        <f>B609*0.03</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A613" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B613" s="19">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A614" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="B614" s="63"/>
-    </row>
-    <row r="615" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A615" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B615" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A616" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B616" s="18">
-        <f>B615*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A617" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B617" s="18">
-        <f>B615*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A618" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B618" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A619" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B619" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A620" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B620" s="63"/>
-    </row>
-    <row r="621" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A621" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B621" s="18">
-        <f>20*26/1000</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A622" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B622" s="18">
-        <f>B623*0.1</f>
-        <v>1.3000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A623" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B623" s="18">
-        <f>B621*0.25</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A624" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B624" s="18">
-        <f>B621*0.03</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A625" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B625" s="19">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A626" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B626" s="63"/>
-    </row>
-    <row r="627" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A627" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B627" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A628" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B628" s="18">
-        <f>B627*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A629" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B629" s="18">
-        <f>B627*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A630" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B630" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A631" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B631" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A632" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B632" s="63"/>
-    </row>
-    <row r="633" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A633" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B633" s="18">
-        <f>20*26/1000</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A634" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B634" s="18">
-        <f>B635*0.1</f>
-        <v>1.3000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A635" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B635" s="18">
-        <f>B633*0.25</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A636" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B636" s="18">
-        <f>B633*0.03</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A637" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B637" s="19">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A638" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B638" s="63"/>
-    </row>
-    <row r="639" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A639" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B639" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A640" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B640" s="18">
-        <f>B639*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A641" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B641" s="18">
-        <f>B639*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A642" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B642" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A643" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B643" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A644" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B644" s="63"/>
-    </row>
-    <row r="645" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A645" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B645" s="18">
-        <f>20*63/1000</f>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A646" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B646" s="18">
-        <f>B647*0.1</f>
-        <v>3.15E-2</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A647" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B647" s="18">
-        <f>B645*0.25</f>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A648" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B648" s="18">
-        <f>B645*0.03</f>
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A649" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B649" s="19">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A650" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B650" s="63"/>
-    </row>
-    <row r="651" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A651" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B651" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A652" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B652" s="18">
-        <f>B651*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A653" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B653" s="18">
-        <f>B651*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A654" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B654" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A655" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B655" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A656" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B656" s="63"/>
-    </row>
-    <row r="657" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A657" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B657" s="18">
-        <f>20*64/1000</f>
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A658" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B658" s="18">
-        <f>B659*0.1</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A659" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B659" s="18">
-        <f>B657*0.25</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A660" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B660" s="18">
-        <f>B657*0.03</f>
-        <v>3.8399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A661" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B661" s="19">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A662" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B662" s="63"/>
-    </row>
-    <row r="663" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A663" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B663" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A664" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B664" s="18">
-        <f>B663*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A665" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B665" s="18">
-        <f>B663*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A666" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B666" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A667" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B667" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A668" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B668" s="63"/>
-    </row>
-    <row r="669" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A669" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B669" s="18">
-        <f>20*63/1000</f>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A670" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B670" s="18">
-        <f>B671*0.1</f>
-        <v>3.15E-2</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A671" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B671" s="18">
-        <f>B669*0.25</f>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A672" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B672" s="18">
-        <f>B669*0.03</f>
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A673" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B673" s="19">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A674" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B674" s="63"/>
-    </row>
-    <row r="675" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A675" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B675" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A676" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B676" s="18">
-        <f>B675*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A677" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B677" s="18">
-        <f>B675*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A678" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B678" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A679" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B679" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A680" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B680" s="63"/>
-    </row>
-    <row r="681" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A681" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B681" s="18">
-        <f>20*64/1000</f>
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A682" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B682" s="18">
-        <f>B683*0.1</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A683" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B683" s="18">
-        <f>B681*0.25</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A684" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B684" s="18">
-        <f>B681*0.03</f>
-        <v>3.8399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A685" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B685" s="19">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A686" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B686" s="63"/>
-    </row>
-    <row r="687" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A687" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B687" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A688" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B688" s="18">
-        <f>B687*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A689" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B689" s="18">
-        <f>B687*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A690" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B690" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A691" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B691" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A692" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B692" s="63"/>
-    </row>
-    <row r="693" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A693" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B693" s="18">
-        <f>20*63/1000</f>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A694" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B694" s="18">
-        <f>B695*0.1</f>
-        <v>3.15E-2</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A695" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B695" s="18">
-        <f>B693*0.25</f>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A696" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B696" s="18">
-        <f>B693*0.03</f>
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A697" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B697" s="19">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A698" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B698" s="63"/>
-    </row>
-    <row r="699" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A699" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B699" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A700" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B700" s="18">
-        <f>B699*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A701" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B701" s="18">
-        <f>B699*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A702" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B702" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A703" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B703" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A704" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B704" s="63"/>
-    </row>
-    <row r="705" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A705" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B705" s="18">
-        <f>20*63/1000</f>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A706" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B706" s="18">
-        <f>B707*0.1</f>
-        <v>3.15E-2</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A707" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B707" s="18">
-        <f>B705*0.25</f>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A708" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B708" s="18">
-        <f>B705*0.03</f>
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A709" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B709" s="19">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A710" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B710" s="63"/>
-    </row>
-    <row r="711" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A711" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B711" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A712" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B712" s="18">
-        <f>B711*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A713" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B713" s="18">
-        <f>B711*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A714" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B714" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A715" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B715" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A716" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B716" s="63"/>
-    </row>
-    <row r="717" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A717" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B717" s="18">
-        <f>20*51/1000</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A718" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B718" s="18">
-        <f>B719*0.1</f>
-        <v>2.5500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A719" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B719" s="18">
-        <f>B717*0.25</f>
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A720" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B720" s="18">
-        <f>B717*0.03</f>
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A721" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B721" s="19">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A722" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B722" s="63"/>
-    </row>
-    <row r="723" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A723" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B723" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A724" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B724" s="18">
-        <f>B723*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A725" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B725" s="18">
-        <f>B723*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A726" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B726" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A727" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B727" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A728" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B728" s="63"/>
-    </row>
-    <row r="729" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A729" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B729" s="18">
-        <f>20*52/1000</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A730" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B730" s="18">
-        <f>B731*0.1</f>
-        <v>2.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A731" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B731" s="18">
-        <f>B729*0.25</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A732" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B732" s="18">
-        <f>B729*0.03</f>
-        <v>3.1199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A733" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B733" s="19">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A734" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B734" s="63"/>
-    </row>
-    <row r="735" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A735" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B735" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A736" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B736" s="18">
-        <f>B735*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A737" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B737" s="18">
-        <f>B735*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A738" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B738" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A739" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B739" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A740" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B740" s="63"/>
-    </row>
-    <row r="741" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A741" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B741" s="18">
-        <f>20*51/1000</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A742" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B742" s="18">
-        <f>B743*0.1</f>
-        <v>2.5500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A743" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B743" s="18">
-        <f>B741*0.25</f>
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A744" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B744" s="18">
-        <f>B741*0.03</f>
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A745" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B745" s="19">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A746" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B746" s="63"/>
-    </row>
-    <row r="747" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A747" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B747" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A748" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B748" s="18">
-        <f>B747*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A749" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B749" s="18">
-        <f>B747*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A750" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B750" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A751" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B751" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A752" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B752" s="63"/>
-    </row>
-    <row r="753" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A753" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B753" s="18">
-        <f>20*51/1000</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A754" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B754" s="18">
-        <f>B755*0.1</f>
-        <v>2.5500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A755" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B755" s="18">
-        <f>B753*0.25</f>
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A756" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B756" s="18">
-        <f>B753*0.03</f>
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A757" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B757" s="19">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A758" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B758" s="63"/>
-    </row>
-    <row r="759" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A759" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B759" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A760" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B760" s="18">
-        <f>B759*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A761" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B761" s="18">
-        <f>B759*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A762" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B762" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A763" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B763" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A764" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B764" s="63"/>
-    </row>
-    <row r="765" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A765" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B765" s="18">
-        <f>20*51/1000</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A766" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B766" s="18">
-        <f>B767*0.1</f>
-        <v>2.5500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A767" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B767" s="18">
-        <f>B765*0.25</f>
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A768" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B768" s="18">
-        <f>B765*0.03</f>
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A769" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B769" s="19">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A770" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B770" s="63"/>
-    </row>
-    <row r="771" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A771" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B771" s="18">
-        <f>30*10/1000</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A772" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B772" s="18">
-        <f>B771*0.1</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A773" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B773" s="18">
-        <f>B771*0.25</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A774" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B774" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A775" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B775" s="19">
-        <v>0.42</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A344:B344"/>
+  <mergeCells count="66">
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A392:B392"/>
+    <mergeCell ref="A374:B374"/>
     <mergeCell ref="A380:B380"/>
     <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A362:B362"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A344:B344"/>
     <mergeCell ref="A350:B350"/>
     <mergeCell ref="A356:B356"/>
-    <mergeCell ref="A362:B362"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A374:B374"/>
-    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A314:B314"/>
     <mergeCell ref="A320:B320"/>
     <mergeCell ref="A326:B326"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A266:B266"/>
     <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A122:B122"/>
     <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A392:B392"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A206:B206"/>
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="A194:B194"/>
     <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A434:B434"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A452:B452"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A404:B404"/>
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="A416:B416"/>
-    <mergeCell ref="A422:B422"/>
-    <mergeCell ref="A428:B428"/>
-    <mergeCell ref="A494:B494"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A506:B506"/>
-    <mergeCell ref="A512:B512"/>
-    <mergeCell ref="A518:B518"/>
-    <mergeCell ref="A464:B464"/>
-    <mergeCell ref="A470:B470"/>
-    <mergeCell ref="A476:B476"/>
-    <mergeCell ref="A482:B482"/>
-    <mergeCell ref="A488:B488"/>
-    <mergeCell ref="A554:B554"/>
-    <mergeCell ref="A560:B560"/>
-    <mergeCell ref="A566:B566"/>
-    <mergeCell ref="A572:B572"/>
-    <mergeCell ref="A578:B578"/>
-    <mergeCell ref="A524:B524"/>
-    <mergeCell ref="A530:B530"/>
-    <mergeCell ref="A536:B536"/>
-    <mergeCell ref="A542:B542"/>
-    <mergeCell ref="A548:B548"/>
-    <mergeCell ref="A620:B620"/>
-    <mergeCell ref="A626:B626"/>
-    <mergeCell ref="A632:B632"/>
-    <mergeCell ref="A638:B638"/>
-    <mergeCell ref="A584:B584"/>
-    <mergeCell ref="A590:B590"/>
-    <mergeCell ref="A596:B596"/>
-    <mergeCell ref="A602:B602"/>
-    <mergeCell ref="A608:B608"/>
-    <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A764:B764"/>
-    <mergeCell ref="A770:B770"/>
-    <mergeCell ref="A734:B734"/>
-    <mergeCell ref="A740:B740"/>
-    <mergeCell ref="A746:B746"/>
-    <mergeCell ref="A752:B752"/>
-    <mergeCell ref="A758:B758"/>
-    <mergeCell ref="A704:B704"/>
-    <mergeCell ref="A710:B710"/>
-    <mergeCell ref="A716:B716"/>
-    <mergeCell ref="A722:B722"/>
-    <mergeCell ref="A728:B728"/>
-    <mergeCell ref="A674:B674"/>
-    <mergeCell ref="A680:B680"/>
-    <mergeCell ref="A686:B686"/>
-    <mergeCell ref="A692:B692"/>
-    <mergeCell ref="A698:B698"/>
-    <mergeCell ref="A644:B644"/>
-    <mergeCell ref="A650:B650"/>
-    <mergeCell ref="A656:B656"/>
-    <mergeCell ref="A662:B662"/>
-    <mergeCell ref="A668:B668"/>
-    <mergeCell ref="A614:B614"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
